--- a/client/public/export/trackings.xlsx
+++ b/client/public/export/trackings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="762">
   <si>
     <t>id</t>
   </si>
@@ -2285,6 +2285,18 @@
   </si>
   <si>
     <t>2022-06-24T08:34</t>
+  </si>
+  <si>
+    <t>Chanathip</t>
+  </si>
+  <si>
+    <t>http://res.cloudinary.com/d2u-service/image/upload/v1656061925/xgclcjvy5uayo2apvlpx.png</t>
+  </si>
+  <si>
+    <t>https://item.mercari.com/jp/m27182292981</t>
+  </si>
+  <si>
+    <t>2022-06-24T09:12</t>
   </si>
 </sst>
 </file>
@@ -2661,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S214"/>
+  <dimension ref="A1:S215"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -12576,6 +12588,59 @@
       </c>
       <c r="S214" t="s">
         <v>757</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>9529</v>
+      </c>
+      <c r="B215" t="s">
+        <v>712</v>
+      </c>
+      <c r="C215" t="s">
+        <v>758</v>
+      </c>
+      <c r="D215" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>23</v>
+      </c>
+      <c r="G215" t="s">
+        <v>23</v>
+      </c>
+      <c r="H215" t="s">
+        <v>759</v>
+      </c>
+      <c r="I215" t="s">
+        <v>23</v>
+      </c>
+      <c r="J215" t="s">
+        <v>25</v>
+      </c>
+      <c r="K215" t="s">
+        <v>23</v>
+      </c>
+      <c r="L215" t="s">
+        <v>760</v>
+      </c>
+      <c r="O215">
+        <v>12500</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215" t="s">
+        <v>761</v>
+      </c>
+      <c r="S215" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
